--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,13 +129,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>fee-for-service</t>
-  </si>
-  <si>
-    <t>Fee for service</t>
-  </si>
-  <si>
-    <t>How much the insurance need to pay the HF for the fee for service health financing.</t>
+    <t>claim-batch</t>
+  </si>
+  <si>
+    <t>Claim batch payment</t>
+  </si>
+  <si>
+    <t>How much the insurance need to pay the HF for the claims reimbursment.</t>
   </si>
   <si>
     <t>commission</t>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>How much the insurance need to pay the commission to EO.</t>
-  </si>
-  <si>
-    <t>capitation</t>
-  </si>
-  <si>
-    <t>Capitation</t>
-  </si>
-  <si>
-    <t>How much the insurance need to pay the HF for the capitation financing.</t>
   </si>
   <si>
     <t>fees</t>
@@ -471,7 +462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,20 +524,6 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bill-type.xlsx
+++ b/CodeSystem-bill-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
